--- a/tabular/chikv_reference_data.xlsx
+++ b/tabular/chikv_reference_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/CHIKV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3A9886-21F8-8440-BB5A-58439D8BD2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736208F3-7D86-9D45-B9D0-670D82655EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27580" windowHeight="16940" xr2:uid="{8929F8F8-FF03-694B-929C-EE24C579D5E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
   <si>
     <t>Asian</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Genotype</t>
+  </si>
+  <si>
+    <t>Subgenotype</t>
   </si>
 </sst>
 </file>
@@ -633,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1151D465-E3A4-0744-A961-C9C4D2A79502}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:D47"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -652,13 +655,16 @@
         <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -666,13 +672,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1963</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -680,13 +689,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1973</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -694,13 +706,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>1963</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -708,13 +723,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -722,13 +740,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -736,391 +757,475 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1985</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>45</v>
       </c>
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>46</v>
       </c>
       <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>47</v>
       </c>
       <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1128,13 +1233,16 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1142,13 +1250,16 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -1156,13 +1267,16 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1170,13 +1284,16 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>1953</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1184,13 +1301,16 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>1963</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1198,13 +1318,16 @@
         <v>58</v>
       </c>
       <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>1966</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1212,13 +1335,16 @@
         <v>58</v>
       </c>
       <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>1966</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1226,13 +1352,16 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>1979</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -1240,13 +1369,16 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1254,13 +1386,16 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1268,13 +1403,16 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>2005</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1282,13 +1420,16 @@
         <v>58</v>
       </c>
       <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>1964</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1296,9 +1437,12 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>1993</v>
       </c>
     </row>
